--- a/datasets/stock_of_151.xlsx
+++ b/datasets/stock_of_151.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristóbal\Desktop\CriStO\Documentos\Proyectos\Pokemon_TCG\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25424BC8-65E6-4BFE-AA71-627B9C858876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF861B1-C2F1-4569-A51B-A671DA81318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1665" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1785" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -933,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="G298" sqref="G298"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="E317" sqref="E317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +986,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,7 +1581,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2129,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,7 +2176,7 @@
         <v>13</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,7 +2584,7 @@
         <v>7</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3030,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3217,7 +3230,7 @@
         <v>8</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,7 +3468,7 @@
         <v>7</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,7 +3519,7 @@
         <v>8</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="E156">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,7 +4012,7 @@
         <v>13</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4169,7 +4182,7 @@
         <v>7</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4543,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,7 +4896,7 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5104,7 +5117,7 @@
         <v>8</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -5325,7 +5338,7 @@
         <v>13</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -5427,7 +5440,7 @@
         <v>7</v>
       </c>
       <c r="E264">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,7 +5610,7 @@
         <v>13</v>
       </c>
       <c r="E274">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -5648,7 +5661,7 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5665,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5818,7 +5831,7 @@
         <v>13</v>
       </c>
       <c r="E287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
